--- a/doc/task04/SED_ProductPlaningMeeting_scrum_v02.xlsx
+++ b/doc/task04/SED_ProductPlaningMeeting_scrum_v02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sibcode/IdeaProjects/ch.bfh.btx8081.w2020.red/doc/task04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF422D74-6869-4BBC-887F-B03AE97B60E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C637C5FF-055B-5C41-9E7E-E3CD6E499776}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="112">
   <si>
     <t>ID</t>
   </si>
@@ -311,6 +311,75 @@
   </si>
   <si>
     <t>kilcs3</t>
+  </si>
+  <si>
+    <t>18h</t>
+  </si>
+  <si>
+    <t>6h</t>
+  </si>
+  <si>
+    <t>9h</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>Einrichten Umgebung</t>
+  </si>
+  <si>
+    <t>Denis</t>
+  </si>
+  <si>
+    <t>Andre</t>
+  </si>
+  <si>
+    <t>Sabine</t>
+  </si>
+  <si>
+    <t>Implementieren Main View</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Implementieren DB Umgebung</t>
+  </si>
+  <si>
+    <t>Implementierung Presenter</t>
+  </si>
+  <si>
+    <t>Implementierung User Modell</t>
+  </si>
+  <si>
+    <t>Presenter</t>
+  </si>
+  <si>
+    <t>GUI, View</t>
+  </si>
+  <si>
+    <t>Backend, Model</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Erstellen der View</t>
+  </si>
+  <si>
+    <t>Einrichten DB</t>
+  </si>
+  <si>
+    <t>Linkage Model-View</t>
+  </si>
+  <si>
+    <t>User Model</t>
+  </si>
+  <si>
+    <t>Vaadin, Eclipse, Git</t>
   </si>
 </sst>
 </file>
@@ -386,7 +455,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -402,7 +471,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -724,17 +793,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -742,7 +811,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -750,7 +819,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -758,7 +827,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -766,7 +835,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -783,25 +852,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
     <col min="3" max="3" width="71" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -827,7 +896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -841,7 +910,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>8</v>
@@ -850,7 +919,7 @@
         <v>44149</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -864,13 +933,13 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -884,13 +953,13 @@
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -904,13 +973,13 @@
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -924,13 +993,13 @@
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -944,13 +1013,13 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -964,13 +1033,16 @@
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>66</v>
       </c>
@@ -980,13 +1052,16 @@
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="H9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>59</v>
@@ -997,13 +1072,16 @@
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="H10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>79</v>
@@ -1014,13 +1092,16 @@
       <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="H11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>77</v>
@@ -1031,13 +1112,16 @@
       <c r="D12" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="H12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>76</v>
@@ -1047,6 +1131,9 @@
       </c>
       <c r="D13" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>8</v>
@@ -1060,29 +1147,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1120,171 +1207,347 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <f>SUM(K3:K10)</f>
+        <v>4</v>
       </c>
       <c r="L2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
       <c r="I3">
-        <v>8</v>
-      </c>
-      <c r="J3">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>92</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1.3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
+        <v>111</v>
+      </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
       </c>
       <c r="I4">
-        <v>16</v>
-      </c>
-      <c r="J4">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>92</v>
       </c>
       <c r="K4">
-        <f>SUM(J4:J4)</f>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>111</v>
+      </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>92</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2.2000000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" t="s">
+        <v>111</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="H6" t="s">
         <v>5</v>
       </c>
       <c r="I6">
-        <v>8</v>
-      </c>
-      <c r="J6">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>92</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L6" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1.6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1.7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1.8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1.9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1300,14 +1563,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
@@ -1321,7 +1584,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1335,7 +1598,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1363,20 +1626,20 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="31.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1402,7 +1665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1428,7 +1691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1445,7 +1708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1462,7 +1725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1493,20 +1756,20 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
     <col min="3" max="3" width="71" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1532,7 +1795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1555,7 +1818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1572,7 +1835,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1595,7 +1858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1618,7 +1881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1641,7 +1904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1658,7 +1921,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1675,7 +1938,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>66</v>
       </c>
@@ -1686,7 +1949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="245.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="245.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1700,7 +1963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1711,7 +1974,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1719,22 +1982,22 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1753,20 +2016,20 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
     <col min="3" max="3" width="71" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1792,7 +2055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1815,7 +2078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1832,7 +2095,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1855,7 +2118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1878,7 +2141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1901,7 +2164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1918,7 +2181,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1935,7 +2198,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>66</v>
       </c>
@@ -1946,7 +2209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="245.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="245.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1960,7 +2223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1971,7 +2234,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1979,22 +2242,22 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2013,23 +2276,23 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2067,7 +2330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -2105,7 +2368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.2</v>
       </c>
@@ -2137,7 +2400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1.3</v>
       </c>
@@ -2170,7 +2433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2.1</v>
       </c>
@@ -2202,7 +2465,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2.2000000000000002</v>
       </c>
@@ -2247,14 +2510,14 @@
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
@@ -2268,7 +2531,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2282,7 +2545,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>

--- a/doc/task04/SED_ProductPlaningMeeting_scrum_v02.xlsx
+++ b/doc/task04/SED_ProductPlaningMeeting_scrum_v02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sibcode/IdeaProjects/ch.bfh.btx8081.w2020.red/doc/task04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\git\ch.bfh.btx8081.w2020.red\doc\task04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C637C5FF-055B-5C41-9E7E-E3CD6E499776}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC2D84E-B69D-40D4-85F9-6A0A26C7601B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="112">
   <si>
     <t>ID</t>
   </si>
@@ -455,7 +455,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -797,13 +797,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -811,7 +811,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -819,7 +819,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -827,7 +827,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -835,7 +835,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -852,25 +852,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
     <col min="3" max="3" width="71" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1640625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -896,7 +896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -919,7 +919,7 @@
         <v>44149</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -939,7 +939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -959,7 +959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -979,7 +979,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -999,7 +999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1149,27 +1149,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -1240,13 +1240,13 @@
       </c>
       <c r="K2">
         <f>SUM(K3:K10)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.2</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.3</v>
       </c>
@@ -1312,17 +1312,14 @@
       <c r="I4">
         <v>3</v>
       </c>
-      <c r="J4" t="s">
-        <v>92</v>
-      </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.4</v>
       </c>
@@ -1360,7 +1357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.5</v>
       </c>
@@ -1398,7 +1395,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.6</v>
       </c>
@@ -1430,13 +1427,13 @@
         <v>92</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.7</v>
       </c>
@@ -1474,7 +1471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.8</v>
       </c>
@@ -1512,7 +1509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.9</v>
       </c>
@@ -1563,14 +1560,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
@@ -1584,7 +1581,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1598,7 +1595,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1626,20 +1623,20 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="31.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1665,7 +1662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1691,7 +1688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1708,7 +1705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1725,7 +1722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1756,20 +1753,20 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
     <col min="3" max="3" width="71" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1795,7 +1792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1818,7 +1815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1835,7 +1832,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1858,7 +1855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1881,7 +1878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1904,7 +1901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1921,7 +1918,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1938,7 +1935,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>66</v>
       </c>
@@ -1949,7 +1946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="245.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="245.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1963,7 +1960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1974,7 +1971,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1982,22 +1979,22 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2016,20 +2013,20 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
     <col min="3" max="3" width="71" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2055,7 +2052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2078,7 +2075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2095,7 +2092,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2118,7 +2115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2141,7 +2138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2164,7 +2161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2181,7 +2178,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2198,7 +2195,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>66</v>
       </c>
@@ -2209,7 +2206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="245.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="245.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -2223,7 +2220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -2234,7 +2231,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -2242,22 +2239,22 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2276,23 +2273,23 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2330,7 +2327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -2368,7 +2365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.2</v>
       </c>
@@ -2400,7 +2397,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.3</v>
       </c>
@@ -2433,7 +2430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.1</v>
       </c>
@@ -2465,7 +2462,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2.2000000000000002</v>
       </c>
@@ -2510,14 +2507,14 @@
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
@@ -2531,7 +2528,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2545,7 +2542,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>

--- a/doc/task04/SED_ProductPlaningMeeting_scrum_v02.xlsx
+++ b/doc/task04/SED_ProductPlaningMeeting_scrum_v02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\git\ch.bfh.btx8081.w2020.red\doc\task04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC2D84E-B69D-40D4-85F9-6A0A26C7601B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C97C93-B86D-4341-92C0-A238DF5F7FCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="113">
   <si>
     <t>ID</t>
   </si>
@@ -380,6 +380,9 @@
   </si>
   <si>
     <t>Vaadin, Eclipse, Git</t>
+  </si>
+  <si>
+    <t>Anpassung GUI: Main View</t>
   </si>
 </sst>
 </file>
@@ -1147,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,7 +1243,7 @@
       </c>
       <c r="K2">
         <f>SUM(K3:K10)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
         <v>9</v>
@@ -1278,7 +1281,7 @@
         <v>92</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3" t="s">
         <v>9</v>
@@ -1313,7 +1316,7 @@
         <v>3</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4" t="s">
         <v>10</v>
@@ -1351,7 +1354,7 @@
         <v>92</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5" t="s">
         <v>9</v>
@@ -1389,7 +1392,7 @@
         <v>92</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6" t="s">
         <v>9</v>
@@ -1415,7 +1418,7 @@
         <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H7" t="s">
         <v>5</v>
@@ -1430,7 +1433,7 @@
         <v>4</v>
       </c>
       <c r="L7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1506,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1545,6 +1548,44 @@
       </c>
       <c r="L10" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/doc/task04/SED_ProductPlaningMeeting_scrum_v02.xlsx
+++ b/doc/task04/SED_ProductPlaningMeeting_scrum_v02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\git\ch.bfh.btx8081.w2020.red\doc\task04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C97C93-B86D-4341-92C0-A238DF5F7FCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCFA7F0-8495-4024-8715-F56887104367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,10 +1582,10 @@
         <v>92</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/doc/task04/SED_ProductPlaningMeeting_scrum_v02.xlsx
+++ b/doc/task04/SED_ProductPlaningMeeting_scrum_v02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\git\ch.bfh.btx8081.w2020.red\doc\task04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCFA7F0-8495-4024-8715-F56887104367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D330BDF-F634-4E14-8BFB-DBC53C6A3F81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -856,7 +856,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,22 +904,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="I2" s="6">
-        <v>44149</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -927,20 +924,21 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1153,7 +1151,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,7 +1210,7 @@
     </row>
     <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1.1000000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1243,7 +1241,7 @@
       </c>
       <c r="K2">
         <f>SUM(K3:K10)</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
         <v>9</v>
@@ -1251,7 +1249,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.2</v>
+        <v>1.02</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1284,12 +1282,12 @@
         <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1.3</v>
+        <v>1.03</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1324,7 +1322,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1.4</v>
+        <v>1.04</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1354,15 +1352,15 @@
         <v>92</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1395,12 +1393,12 @@
         <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1.6</v>
+        <v>1.06</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1438,7 +1436,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1.7</v>
+        <v>1.07</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1468,15 +1466,15 @@
         <v>92</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1.8</v>
+        <v>1.08</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1514,7 +1512,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1.9</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1547,12 +1545,12 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1598,7 +1596,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/task04/SED_ProductPlaningMeeting_scrum_v02.xlsx
+++ b/doc/task04/SED_ProductPlaningMeeting_scrum_v02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\git\ch.bfh.btx8081.w2020.red\doc\task04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sibcode/IdeaProjects/ch.bfh.btx8081.w2020.red/doc/task04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D330BDF-F634-4E14-8BFB-DBC53C6A3F81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496E517C-4641-CE49-8617-D07624C0B7A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="115">
   <si>
     <t>ID</t>
   </si>
@@ -383,6 +383,12 @@
   </si>
   <si>
     <t>Anpassung GUI: Main View</t>
+  </si>
+  <si>
+    <t>Vorbereitung Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login-View </t>
   </si>
 </sst>
 </file>
@@ -458,7 +464,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -474,7 +480,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -800,13 +806,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -814,7 +820,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -822,7 +828,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -830,7 +836,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -838,7 +844,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -859,21 +865,21 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
     <col min="3" max="3" width="71" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -899,7 +905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -919,7 +925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -940,7 +946,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -960,7 +966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -980,7 +986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1000,7 +1006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1020,7 +1026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1040,7 +1046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1060,7 +1066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1080,7 +1086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1100,7 +1106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1120,7 +1126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1148,29 +1154,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1208,7 +1214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.01</v>
       </c>
@@ -1241,13 +1247,13 @@
       </c>
       <c r="K2">
         <f>SUM(K3:K10)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.02</v>
       </c>
@@ -1285,7 +1291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1.03</v>
       </c>
@@ -1320,7 +1326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1.04</v>
       </c>
@@ -1358,7 +1364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1.05</v>
       </c>
@@ -1390,13 +1396,13 @@
         <v>92</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1.06</v>
       </c>
@@ -1434,7 +1440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1.07</v>
       </c>
@@ -1472,7 +1478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1.08</v>
       </c>
@@ -1504,13 +1510,13 @@
         <v>92</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1.0900000000000001</v>
       </c>
@@ -1545,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1.1000000000000001</v>
       </c>
@@ -1584,6 +1590,41 @@
       </c>
       <c r="L11" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1599,14 +1640,14 @@
       <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
@@ -1620,7 +1661,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1634,7 +1675,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1662,20 +1703,20 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="31.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1701,7 +1742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1727,7 +1768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1744,7 +1785,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1761,7 +1802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1792,20 +1833,20 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
     <col min="3" max="3" width="71" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1831,7 +1872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1854,7 +1895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1871,7 +1912,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1894,7 +1935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1917,7 +1958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1940,7 +1981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1957,7 +1998,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1974,7 +2015,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>66</v>
       </c>
@@ -1985,7 +2026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="245.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="245.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1999,7 +2040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -2010,7 +2051,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -2018,22 +2059,22 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2052,20 +2093,20 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
     <col min="3" max="3" width="71" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2091,7 +2132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2114,7 +2155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2131,7 +2172,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2154,7 +2195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2177,7 +2218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2200,7 +2241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2217,7 +2258,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2234,7 +2275,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>66</v>
       </c>
@@ -2245,7 +2286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="245.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="245.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -2259,7 +2300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -2270,7 +2311,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -2278,22 +2319,22 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2312,23 +2353,23 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2366,7 +2407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -2404,7 +2445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.2</v>
       </c>
@@ -2436,7 +2477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1.3</v>
       </c>
@@ -2469,7 +2510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2.1</v>
       </c>
@@ -2501,7 +2542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2.2000000000000002</v>
       </c>
@@ -2546,14 +2587,14 @@
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
@@ -2567,7 +2608,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2581,7 +2622,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>

--- a/doc/task04/SED_ProductPlaningMeeting_scrum_v02.xlsx
+++ b/doc/task04/SED_ProductPlaningMeeting_scrum_v02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sibcode/IdeaProjects/ch.bfh.btx8081.w2020.red/doc/task04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\git\ch.bfh.btx8081.w2020.red\doc\task04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496E517C-4641-CE49-8617-D07624C0B7A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19397155-62DD-4CA5-8E1F-D7C3F47715AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="124">
   <si>
     <t>ID</t>
   </si>
@@ -389,13 +389,40 @@
   </si>
   <si>
     <t xml:space="preserve">Login-View </t>
+  </si>
+  <si>
+    <t>Instructionen Erstellen</t>
+  </si>
+  <si>
+    <t>Implementieren Instruction View</t>
+  </si>
+  <si>
+    <t>Implementieren Add Instruction View</t>
+  </si>
+  <si>
+    <t>Implementierung Instruction Model</t>
+  </si>
+  <si>
+    <t>Einrichten SQLite</t>
+  </si>
+  <si>
+    <t>SQLite</t>
+  </si>
+  <si>
+    <t>Persistierung einrichten</t>
+  </si>
+  <si>
+    <t>Instruction Model</t>
+  </si>
+  <si>
+    <t>56?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,6 +434,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -444,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -462,9 +496,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -480,7 +515,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -806,13 +841,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -820,7 +855,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -828,7 +863,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -836,7 +871,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -844,7 +879,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -862,24 +897,24 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
     <col min="3" max="3" width="71" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1640625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -905,7 +940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -925,7 +960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -946,7 +981,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -966,7 +1001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -986,7 +1021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1006,7 +1041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1026,7 +1061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1046,7 +1081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1066,7 +1101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1086,7 +1121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1106,7 +1141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1126,7 +1161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1154,29 +1189,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="I15" sqref="I14:I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1214,7 +1249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.01</v>
       </c>
@@ -1253,7 +1288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.02</v>
       </c>
@@ -1291,7 +1326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.03</v>
       </c>
@@ -1326,7 +1361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.04</v>
       </c>
@@ -1364,7 +1399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.05</v>
       </c>
@@ -1402,7 +1437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.06</v>
       </c>
@@ -1440,7 +1475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.07</v>
       </c>
@@ -1478,7 +1513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.08</v>
       </c>
@@ -1516,7 +1551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.0900000000000001</v>
       </c>
@@ -1554,7 +1589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1.1000000000000001</v>
       </c>
@@ -1592,9 +1627,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1625,6 +1660,257 @@
       </c>
       <c r="L12" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5.01</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1.07</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5.03</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5.04</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1640,14 +1926,14 @@
       <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
@@ -1661,7 +1947,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1675,7 +1961,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1703,20 +1989,20 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="31.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1742,7 +2028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1768,7 +2054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1785,7 +2071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1802,7 +2088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1833,20 +2119,20 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
     <col min="3" max="3" width="71" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1872,7 +2158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1895,7 +2181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1912,7 +2198,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1935,7 +2221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1958,7 +2244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1981,7 +2267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1998,7 +2284,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2015,7 +2301,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>66</v>
       </c>
@@ -2026,7 +2312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="245.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="245.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -2040,7 +2326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -2051,7 +2337,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -2059,22 +2345,22 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2093,20 +2379,20 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
     <col min="3" max="3" width="71" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2132,7 +2418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2155,7 +2441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2172,7 +2458,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2195,7 +2481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2218,7 +2504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2241,7 +2527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2258,7 +2544,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2275,7 +2561,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>66</v>
       </c>
@@ -2286,7 +2572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="245.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="245.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -2300,7 +2586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -2311,7 +2597,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -2319,22 +2605,22 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2353,23 +2639,23 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2407,7 +2693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -2445,7 +2731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.2</v>
       </c>
@@ -2477,7 +2763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.3</v>
       </c>
@@ -2510,7 +2796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.1</v>
       </c>
@@ -2542,7 +2828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2.2000000000000002</v>
       </c>
@@ -2587,14 +2873,14 @@
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
@@ -2608,7 +2894,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2622,7 +2908,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>

--- a/doc/task04/SED_ProductPlaningMeeting_scrum_v02.xlsx
+++ b/doc/task04/SED_ProductPlaningMeeting_scrum_v02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\git\ch.bfh.btx8081.w2020.red\doc\task04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19397155-62DD-4CA5-8E1F-D7C3F47715AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C724F8-097E-48FD-BD1E-D4E723A5F603}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="125">
   <si>
     <t>ID</t>
   </si>
@@ -397,9 +397,6 @@
     <t>Implementieren Instruction View</t>
   </si>
   <si>
-    <t>Implementieren Add Instruction View</t>
-  </si>
-  <si>
     <t>Implementierung Instruction Model</t>
   </si>
   <si>
@@ -416,6 +413,12 @@
   </si>
   <si>
     <t>56?</t>
+  </si>
+  <si>
+    <t>Implementieren AddInstructionView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementierung Instruction Presenter </t>
   </si>
 </sst>
 </file>
@@ -1189,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I14:I15"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,7 +1676,7 @@
         <v>115</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1745,13 +1748,13 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" t="s">
         <v>119</v>
-      </c>
-      <c r="D16" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" t="s">
-        <v>120</v>
       </c>
       <c r="F16" t="s">
         <v>96</v>
@@ -1774,13 +1777,13 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" t="s">
         <v>119</v>
-      </c>
-      <c r="D17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" t="s">
-        <v>120</v>
       </c>
       <c r="F17" t="s">
         <v>95</v>
@@ -1803,13 +1806,13 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" t="s">
         <v>119</v>
-      </c>
-      <c r="D18" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" t="s">
-        <v>120</v>
       </c>
       <c r="F18" t="s">
         <v>97</v>
@@ -1825,17 +1828,20 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5.05</v>
+      </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" t="s">
         <v>119</v>
-      </c>
-      <c r="D19" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" t="s">
-        <v>120</v>
       </c>
       <c r="F19" t="s">
         <v>93</v>
@@ -1851,6 +1857,9 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5.0599999999999996</v>
+      </c>
       <c r="B20">
         <v>2</v>
       </c>
@@ -1877,11 +1886,14 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>5.07</v>
+      </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
         <v>107</v>
@@ -1903,14 +1915,40 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5.08</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="E22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" t="s">
+        <v>97</v>
       </c>
       <c r="I22">
         <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5.09</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/doc/task04/SED_ProductPlaningMeeting_scrum_v02.xlsx
+++ b/doc/task04/SED_ProductPlaningMeeting_scrum_v02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\git\ch.bfh.btx8081.w2020.red\doc\task04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C724F8-097E-48FD-BD1E-D4E723A5F603}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0947D3-8CDA-4D71-AACD-E62F53E4B793}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="125">
   <si>
     <t>ID</t>
   </si>
@@ -412,13 +412,13 @@
     <t>Instruction Model</t>
   </si>
   <si>
-    <t>56?</t>
-  </si>
-  <si>
     <t>Implementieren AddInstructionView</t>
   </si>
   <si>
     <t xml:space="preserve">Implementierung Instruction Presenter </t>
+  </si>
+  <si>
+    <t>56h</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -900,7 +899,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,8 +958,11 @@
       <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="G2" s="1">
+        <v>34</v>
+      </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1058,10 +1060,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1194,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,7 +1254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.01</v>
       </c>
@@ -1284,8 +1286,8 @@
         <v>36</v>
       </c>
       <c r="K2">
-        <f>SUM(K3:K10)</f>
-        <v>25</v>
+        <f>SUM(K3:K12)</f>
+        <v>34</v>
       </c>
       <c r="L2" t="s">
         <v>9</v>
@@ -1357,6 +1359,9 @@
       <c r="I4">
         <v>3</v>
       </c>
+      <c r="J4" t="s">
+        <v>92</v>
+      </c>
       <c r="K4">
         <v>3</v>
       </c>
@@ -1472,7 +1477,7 @@
         <v>92</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L7" t="s">
         <v>10</v>
@@ -1510,7 +1515,7 @@
         <v>92</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L8" t="s">
         <v>9</v>
@@ -1586,7 +1591,7 @@
         <v>92</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="s">
         <v>10</v>
@@ -1658,6 +1663,9 @@
       <c r="I12">
         <v>2</v>
       </c>
+      <c r="J12" t="s">
+        <v>92</v>
+      </c>
       <c r="K12">
         <v>3</v>
       </c>
@@ -1675,8 +1683,12 @@
       <c r="C13" t="s">
         <v>115</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>122</v>
+      <c r="I13" s="7">
+        <v>56</v>
+      </c>
+      <c r="K13">
+        <f>SUM(K14:K23)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1704,11 +1716,11 @@
       <c r="H14" t="s">
         <v>5</v>
       </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
       <c r="J14" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1736,8 +1748,11 @@
       <c r="H15" t="s">
         <v>5</v>
       </c>
-      <c r="L15" t="s">
-        <v>9</v>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1768,8 +1783,11 @@
       <c r="I16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5.03</v>
       </c>
@@ -1797,8 +1815,11 @@
       <c r="I17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5.04</v>
       </c>
@@ -1826,8 +1847,11 @@
       <c r="I18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5.05</v>
       </c>
@@ -1855,8 +1879,11 @@
       <c r="I19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5.0599999999999996</v>
       </c>
@@ -1884,8 +1911,11 @@
       <c r="I20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5.07</v>
       </c>
@@ -1893,7 +1923,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D21" t="s">
         <v>107</v>
@@ -1908,13 +1938,16 @@
         <v>99</v>
       </c>
       <c r="H21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5.08</v>
       </c>
@@ -1933,11 +1966,20 @@
       <c r="F22" t="s">
         <v>97</v>
       </c>
+      <c r="G22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" t="s">
+        <v>5</v>
+      </c>
       <c r="I22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5.09</v>
       </c>
@@ -1945,10 +1987,28 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="D23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" t="s">
+        <v>103</v>
       </c>
       <c r="F23" t="s">
         <v>93</v>
+      </c>
+      <c r="G23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1960,8 +2020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/task04/SED_ProductPlaningMeeting_scrum_v02.xlsx
+++ b/doc/task04/SED_ProductPlaningMeeting_scrum_v02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\git\ch.bfh.btx8081.w2020.red\doc\task04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0947D3-8CDA-4D71-AACD-E62F53E4B793}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BD9B47-5F62-414B-BB02-A8D1D6450A56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -18,10 +18,9 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
     <sheet name="Product Backlog (original)" sheetId="5" r:id="rId5"/>
-    <sheet name="Product Backlog (2)" sheetId="8" r:id="rId6"/>
-    <sheet name="Product Backlog (3)" sheetId="9" r:id="rId7"/>
-    <sheet name="Sprint Backlog (original)" sheetId="6" r:id="rId8"/>
-    <sheet name="BurndownChart (original)" sheetId="7" r:id="rId9"/>
+    <sheet name="Product Backlog (3)" sheetId="9" r:id="rId6"/>
+    <sheet name="Sprint Backlog (original)" sheetId="6" r:id="rId7"/>
+    <sheet name="BurndownChart (original)" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="125">
   <si>
     <t>ID</t>
   </si>
@@ -1196,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1688,7 +1687,7 @@
       </c>
       <c r="K13">
         <f>SUM(K14:K23)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1787,7 +1786,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5.03</v>
       </c>
@@ -1818,8 +1817,14 @@
       <c r="J17" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5.04</v>
       </c>
@@ -1851,7 +1856,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5.05</v>
       </c>
@@ -1883,7 +1888,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5.0599999999999996</v>
       </c>
@@ -1914,8 +1919,14 @@
       <c r="J20" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5.07</v>
       </c>
@@ -1946,8 +1957,14 @@
       <c r="J21" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5.08</v>
       </c>
@@ -1979,7 +1996,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5.09</v>
       </c>
@@ -2020,7 +2037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2210,266 +2227,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91F5D9D-2BE7-4D7C-9173-F406B91D584B}">
-  <dimension ref="A1:H16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="3" width="71" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="245.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CE6AB2-AEA9-4E83-BA70-6F3730B47919}">
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -2729,7 +2486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791D67FA-A77C-4BFD-A084-284FA0389A19}">
   <dimension ref="A1:L6"/>
   <sheetViews>
@@ -2963,7 +2720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD4F445-5067-4D85-8FBF-476A4269761E}">
   <dimension ref="A1:D3"/>
   <sheetViews>

--- a/doc/task04/SED_ProductPlaningMeeting_scrum_v02.xlsx
+++ b/doc/task04/SED_ProductPlaningMeeting_scrum_v02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\git\ch.bfh.btx8081.w2020.red\doc\task04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BD9B47-5F62-414B-BB02-A8D1D6450A56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61FECD2-0E76-43E9-9AAC-91C7D4ED67BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1196,7 +1196,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="K13">
         <f>SUM(K14:K23)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1958,7 +1958,7 @@
         <v>92</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21" t="s">
         <v>9</v>

--- a/doc/task04/SED_ProductPlaningMeeting_scrum_v02.xlsx
+++ b/doc/task04/SED_ProductPlaningMeeting_scrum_v02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\git\ch.bfh.btx8081.w2020.red\doc\task04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andre/Documents/GitHub/ch.bfh.btx8081.w2020.red/doc/task04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61FECD2-0E76-43E9-9AAC-91C7D4ED67BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCDA799-DC98-8548-BF8B-B47B009345E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="153">
   <si>
     <t>ID</t>
   </si>
@@ -418,6 +418,90 @@
   </si>
   <si>
     <t>56h</t>
+  </si>
+  <si>
+    <t>Instruction View</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>ADD Functionnalität Hinzufügen</t>
+  </si>
+  <si>
+    <t>Fehelermeldung kommt nicht immer</t>
+  </si>
+  <si>
+    <t>Alles mit Calculator muss weg sein</t>
+  </si>
+  <si>
+    <t>Projektname sollte etwas anderes sein.</t>
+  </si>
+  <si>
+    <t>Projektname wechseln in Github</t>
+  </si>
+  <si>
+    <t>Contacts Model, View und Presenter</t>
+  </si>
+  <si>
+    <t>Kontakt funktionalität hinzufügen</t>
+  </si>
+  <si>
+    <t>GUI,Model,Presenter</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>InstruktionModel überarbeiten</t>
+  </si>
+  <si>
+    <t>Junit tests hinzufügen</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Postponed</t>
+  </si>
+  <si>
+    <t>Packages Aufräumen</t>
+  </si>
+  <si>
+    <t>Aufräumen von Ordnern und Dateien</t>
+  </si>
+  <si>
+    <t>instructionMngView</t>
+  </si>
+  <si>
+    <t>Range Validation test</t>
+  </si>
+  <si>
+    <t>instructionMgntView ADD</t>
+  </si>
+  <si>
+    <t>Junit Test  instructionMgntView</t>
+  </si>
+  <si>
+    <t>instructionMgntView Fehlermeldung</t>
+  </si>
+  <si>
+    <t>Präsentation aufbauen</t>
+  </si>
+  <si>
+    <t>Presentation/Dokumentation</t>
+  </si>
+  <si>
+    <t>Calculator und entfernen</t>
   </si>
 </sst>
 </file>
@@ -500,7 +584,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -516,7 +600,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -842,13 +926,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -856,7 +940,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -864,7 +948,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -872,7 +956,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -880,7 +964,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -901,21 +985,21 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
     <col min="3" max="3" width="71" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -941,7 +1025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -964,7 +1048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -985,7 +1069,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1005,7 +1089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1025,7 +1109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1045,7 +1129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1065,7 +1149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1085,7 +1169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1105,7 +1189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1125,7 +1209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1145,7 +1229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1165,7 +1249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1193,29 +1277,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36.1640625" customWidth="1"/>
+    <col min="4" max="4" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1253,7 +1337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.01</v>
       </c>
@@ -1292,7 +1376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.02</v>
       </c>
@@ -1330,7 +1414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1.03</v>
       </c>
@@ -1368,7 +1452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1.04</v>
       </c>
@@ -1406,7 +1490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1.05</v>
       </c>
@@ -1444,7 +1528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1.06</v>
       </c>
@@ -1482,7 +1566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1.07</v>
       </c>
@@ -1520,7 +1604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1.08</v>
       </c>
@@ -1558,7 +1642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1.0900000000000001</v>
       </c>
@@ -1596,7 +1680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1.1000000000000001</v>
       </c>
@@ -1634,7 +1718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1.1100000000000001</v>
       </c>
@@ -1672,7 +1756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5.01</v>
       </c>
@@ -1687,10 +1771,10 @@
       </c>
       <c r="K13">
         <f>SUM(K14:K23)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1.07</v>
       </c>
@@ -1721,8 +1805,14 @@
       <c r="J14" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1.1100000000000001</v>
       </c>
@@ -1753,8 +1843,14 @@
       <c r="J15" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5.0199999999999996</v>
       </c>
@@ -1785,8 +1881,14 @@
       <c r="J16" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5.03</v>
       </c>
@@ -1824,7 +1926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5.04</v>
       </c>
@@ -1855,8 +1957,14 @@
       <c r="J18" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="L18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5.05</v>
       </c>
@@ -1887,8 +1995,14 @@
       <c r="J19" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5.0599999999999996</v>
       </c>
@@ -1926,7 +2040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5.07</v>
       </c>
@@ -1954,17 +2068,14 @@
       <c r="I21">
         <v>1</v>
       </c>
-      <c r="J21" t="s">
-        <v>92</v>
-      </c>
-      <c r="K21">
+      <c r="J21">
         <v>3</v>
       </c>
       <c r="L21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5.08</v>
       </c>
@@ -1992,11 +2103,14 @@
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="J22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="L22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5.09</v>
       </c>
@@ -2024,8 +2138,240 @@
       <c r="I23">
         <v>2</v>
       </c>
-      <c r="J23" t="s">
-        <v>92</v>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="L23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" t="s">
+        <v>95</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" t="s">
+        <v>141</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" t="s">
+        <v>145</v>
+      </c>
+      <c r="F26" t="s">
+        <v>95</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" t="s">
+        <v>95</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" t="s">
+        <v>96</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" t="s">
+        <v>131</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" t="s">
+        <v>99</v>
+      </c>
+      <c r="H30" t="s">
+        <v>135</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" t="s">
+        <v>99</v>
+      </c>
+      <c r="H31" t="s">
+        <v>137</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" t="s">
+        <v>99</v>
+      </c>
+      <c r="H32" t="s">
+        <v>141</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" t="s">
+        <v>150</v>
+      </c>
+      <c r="F34" t="s">
+        <v>97</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2041,14 +2387,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
@@ -2062,7 +2408,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2076,7 +2422,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2104,20 +2450,20 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="31.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2143,7 +2489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2169,7 +2515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2186,7 +2532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2203,7 +2549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2234,20 +2580,20 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
     <col min="3" max="3" width="71" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2273,7 +2619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2296,7 +2642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2313,7 +2659,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2336,7 +2682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2359,7 +2705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2382,7 +2728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2399,7 +2745,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2416,7 +2762,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>66</v>
       </c>
@@ -2427,7 +2773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="245.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="245.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -2441,7 +2787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -2452,7 +2798,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -2460,22 +2806,22 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2494,23 +2840,23 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2548,7 +2894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -2586,7 +2932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.2</v>
       </c>
@@ -2618,7 +2964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1.3</v>
       </c>
@@ -2651,7 +2997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2.1</v>
       </c>
@@ -2683,7 +3029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2.2000000000000002</v>
       </c>
@@ -2728,14 +3074,14 @@
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
@@ -2749,7 +3095,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2763,7 +3109,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>

--- a/doc/task04/SED_ProductPlaningMeeting_scrum_v02.xlsx
+++ b/doc/task04/SED_ProductPlaningMeeting_scrum_v02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andre/Documents/GitHub/ch.bfh.btx8081.w2020.red/doc/task04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\git\ch.bfh.btx8081.w2020.red\doc\task04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCDA799-DC98-8548-BF8B-B47B009345E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91E4728-E9AB-4E9E-9B25-96850936E3DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="154">
   <si>
     <t>ID</t>
   </si>
@@ -502,6 +502,9 @@
   </si>
   <si>
     <t>Calculator und entfernen</t>
+  </si>
+  <si>
+    <t>Andre/Denis</t>
   </si>
 </sst>
 </file>
@@ -584,7 +587,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -600,7 +603,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -926,13 +929,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -940,7 +943,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -948,7 +951,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -956,7 +959,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -964,7 +967,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -985,21 +988,21 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
     <col min="3" max="3" width="71" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1640625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1025,7 +1028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1048,7 +1051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1069,7 +1072,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1089,7 +1092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1109,7 +1112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1129,7 +1132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1149,7 +1152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1169,7 +1172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1189,7 +1192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1209,7 +1212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1229,7 +1232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1249,7 +1252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1279,27 +1282,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="C9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
-    <col min="3" max="3" width="36.1640625" customWidth="1"/>
-    <col min="4" max="4" width="36.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1337,7 +1340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.01</v>
       </c>
@@ -1376,7 +1379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.02</v>
       </c>
@@ -1414,7 +1417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.03</v>
       </c>
@@ -1452,7 +1455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.04</v>
       </c>
@@ -1490,7 +1493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.05</v>
       </c>
@@ -1528,7 +1531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.06</v>
       </c>
@@ -1566,7 +1569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.07</v>
       </c>
@@ -1604,7 +1607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.08</v>
       </c>
@@ -1642,7 +1645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.0900000000000001</v>
       </c>
@@ -1680,7 +1683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1.1000000000000001</v>
       </c>
@@ -1718,7 +1721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.1100000000000001</v>
       </c>
@@ -1756,7 +1759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5.01</v>
       </c>
@@ -1774,7 +1777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.07</v>
       </c>
@@ -1812,7 +1815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.1100000000000001</v>
       </c>
@@ -1850,7 +1853,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5.0199999999999996</v>
       </c>
@@ -1888,7 +1891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5.03</v>
       </c>
@@ -1926,7 +1929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5.04</v>
       </c>
@@ -1964,7 +1967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5.05</v>
       </c>
@@ -2002,7 +2005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5.0599999999999996</v>
       </c>
@@ -2040,7 +2043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5.07</v>
       </c>
@@ -2075,7 +2078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5.08</v>
       </c>
@@ -2110,7 +2113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5.09</v>
       </c>
@@ -2145,7 +2148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5.0599999999999996</v>
       </c>
@@ -2168,7 +2171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>3</v>
       </c>
@@ -2194,7 +2197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>3</v>
       </c>
@@ -2214,7 +2217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>3</v>
       </c>
@@ -2231,7 +2234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>3</v>
       </c>
@@ -2242,13 +2245,19 @@
         <v>129</v>
       </c>
       <c r="F28" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>3</v>
       </c>
@@ -2262,7 +2271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>3</v>
       </c>
@@ -2288,7 +2297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>3</v>
       </c>
@@ -2314,7 +2323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>3</v>
       </c>
@@ -2340,7 +2349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>3</v>
       </c>
@@ -2357,7 +2366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>3</v>
       </c>
@@ -2387,14 +2396,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
@@ -2408,7 +2417,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2422,7 +2431,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2450,20 +2459,20 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="31.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2489,7 +2498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2515,7 +2524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2532,7 +2541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2549,7 +2558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2580,20 +2589,20 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
     <col min="3" max="3" width="71" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2619,7 +2628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2642,7 +2651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2659,7 +2668,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2682,7 +2691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2705,7 +2714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2728,7 +2737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2745,7 +2754,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2762,7 +2771,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>66</v>
       </c>
@@ -2773,7 +2782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="245.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="245.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -2787,7 +2796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -2798,7 +2807,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -2806,22 +2815,22 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2840,23 +2849,23 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2894,7 +2903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -2932,7 +2941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.2</v>
       </c>
@@ -2964,7 +2973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.3</v>
       </c>
@@ -2997,7 +3006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.1</v>
       </c>
@@ -3029,7 +3038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2.2000000000000002</v>
       </c>
@@ -3074,14 +3083,14 @@
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
@@ -3095,7 +3104,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3109,7 +3118,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>

--- a/doc/task04/SED_ProductPlaningMeeting_scrum_v02.xlsx
+++ b/doc/task04/SED_ProductPlaningMeeting_scrum_v02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\git\ch.bfh.btx8081.w2020.red\doc\task04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andre/Documents/GitHub/ch.bfh.btx8081.w2020.red/doc/task04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91E4728-E9AB-4E9E-9B25-96850936E3DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8B2D7F-2F3C-D649-93FF-4CBDA5F72F21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -587,7 +587,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -603,7 +603,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -929,13 +929,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -943,7 +943,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -951,7 +951,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -959,7 +959,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -967,7 +967,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -988,21 +988,21 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
     <col min="3" max="3" width="71" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1283,26 +1283,26 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36.1640625" customWidth="1"/>
+    <col min="4" max="4" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.01</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.02</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1.03</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1.04</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1.05</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1.06</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1.07</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1.08</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1.0900000000000001</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1.1000000000000001</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1.1100000000000001</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5.01</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1.07</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1.1100000000000001</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5.0199999999999996</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5.03</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5.04</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5.05</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5.0599999999999996</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5.07</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5.08</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5.09</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5.0599999999999996</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>3</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>3</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>3</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>3</v>
       </c>
@@ -2254,10 +2254,10 @@
         <v>1</v>
       </c>
       <c r="L28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>3</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>3</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>3</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>3</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>3</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>3</v>
       </c>
@@ -2396,14 +2396,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2459,20 +2459,20 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="31.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2589,20 +2589,20 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
     <col min="3" max="3" width="71" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>66</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="245.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="245.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -2815,22 +2815,22 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2849,23 +2849,23 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.2</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1.3</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2.1</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2.2000000000000002</v>
       </c>
@@ -3083,14 +3083,14 @@
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
